--- a/Lab1.xlsx
+++ b/Lab1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,18 +24,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Clock Jitter</t>
   </si>
   <si>
     <t>StdDev</t>
   </si>
+  <si>
+    <t>Max</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -65,8 +71,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,25 +388,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3.2675559999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4.2296300000000002</v>
       </c>
@@ -408,7 +415,7 @@
         <v>0.96207400000000032</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.2179609999999998</v>
       </c>
@@ -416,8 +423,12 @@
         <f t="shared" ref="B4:B9" si="0">A4-A3</f>
         <v>0.98833099999999963</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <f>B3-B4</f>
+        <v>-2.6256999999999309E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6.195163</v>
       </c>
@@ -425,8 +436,12 @@
         <f t="shared" si="0"/>
         <v>0.97720200000000013</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:C8" si="1">B4-B5</f>
+        <v>1.11289999999995E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7.1678980000000001</v>
       </c>
@@ -434,8 +449,12 @@
         <f t="shared" si="0"/>
         <v>0.97273500000000013</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>4.4669999999999987E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8.1495669999999993</v>
       </c>
@@ -443,8 +462,12 @@
         <f t="shared" si="0"/>
         <v>0.98166899999999924</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>-8.9339999999991093E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9.1176739999999992</v>
       </c>
@@ -452,8 +475,12 @@
         <f t="shared" si="0"/>
         <v>0.96810699999999983</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3561999999999408E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10.101305</v>
       </c>
@@ -461,8 +488,12 @@
         <f t="shared" si="0"/>
         <v>0.98363100000000081</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <f>B8-B9</f>
+        <v>-1.5524000000000981E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -471,7 +502,17 @@
         <v>8.5383524410837901E-3</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <f t="array" ref="B11">MAX(ABS(C4:C9))</f>
+        <v>2.6256999999999309E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>